--- a/eBay Category List.xlsx
+++ b/eBay Category List.xlsx
@@ -4,19 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7485"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7485" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="EBAY-US" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Antiques" sheetId="2" r:id="rId2"/>
+    <sheet name="Art" sheetId="3" r:id="rId3"/>
+    <sheet name="Baby" sheetId="4" r:id="rId4"/>
+    <sheet name="Books" sheetId="5" r:id="rId5"/>
+    <sheet name="Business &amp; Industrial" sheetId="6" r:id="rId6"/>
+    <sheet name="Cameras &amp; Photo" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="237">
   <si>
     <t>Antiques</t>
   </si>
@@ -226,6 +230,507 @@
   </si>
   <si>
     <t>Main Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # 37903  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antiquities </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # 4707  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Architectural &amp; Garden </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # 20082  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asian Antiques </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # 2195  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Books &amp; Manuscripts </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # 20086  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decorative Arts </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # 2207  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethnographic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # 20091  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Furniture </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # 163008  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home &amp; Hearth </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # 2218  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linens &amp; Textiles (Pre-1930) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # 37958  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maps, Atlases &amp; Globes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # 37965  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maritime </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # 163091  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mercantile, Trades &amp; Factories </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # 37974  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Musical Instruments (Pre-1930) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # 100927  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Periods &amp; Styles </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # 163101  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restoration &amp; Care </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # 37978  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rugs &amp; Carpets </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # 20094  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Science &amp; Medicine (Pre-1930) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # 156323  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sewing (Pre-1930) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # 20096  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silver </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    # 158658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Art from Dealers &amp; Resellers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    # 60435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direct from the Artist </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    # 52524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wholesale Lots </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   # 100223 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baby Gear </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   # 20433 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baby Safety &amp; Health </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   # 20394 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bathing &amp; Grooming </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   # 66692 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Car Safety Seats </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   # 100982 </t>
+  </si>
+  <si>
+    <t>Carriers, Slings &amp; Backpacks   Go to eBay  (leaf)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   # 45455 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diapering </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   # 20400 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feeding </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   # 117388 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keepsakes &amp; Baby Announcements </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   # 20416 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nursery Bedding </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   # 66697 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nursery Décor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   # 20422 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nursery Furniture </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   # 66698 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strollers &amp; Accessories </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   # 19068 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toys for Baby </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   # 48757 </t>
+  </si>
+  <si>
+    <t>Wholesale Lots</t>
+  </si>
+  <si>
+    <t>Category Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    # 45110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accessories </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    # 29223</t>
+  </si>
+  <si>
+    <t>Antiquarian &amp; Collectible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    # 29792</t>
+  </si>
+  <si>
+    <t>Audiobooks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    # 118254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catalogs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    # 1093</t>
+  </si>
+  <si>
+    <t>Children &amp; Young Adults</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    # 11104</t>
+  </si>
+  <si>
+    <t>Cookbooks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    # 171228</t>
+  </si>
+  <si>
+    <t>Fiction &amp; Literature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    # 280</t>
+  </si>
+  <si>
+    <t>Magazine Back Issues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    # 171243</t>
+  </si>
+  <si>
+    <t>Nonfiction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    # 268</t>
+  </si>
+  <si>
+    <t>Other Books</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    # 2228</t>
+  </si>
+  <si>
+    <t>Textbooks, Education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    # 29399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wholesale &amp; Bulk Lots </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Agriculture &amp; Forestry </t>
+  </si>
+  <si>
+    <t># 11748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Construction </t>
+  </si>
+  <si>
+    <t># 11765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Electrical &amp; Test Equipment </t>
+  </si>
+  <si>
+    <t># 92074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Fuel &amp; Energy </t>
+  </si>
+  <si>
+    <t># 159693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Healthcare, Lab &amp; Life Science </t>
+  </si>
+  <si>
+    <t># 11815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Heavy Equipment </t>
+  </si>
+  <si>
+    <t># 177641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Heavy Equipment Attachments </t>
+  </si>
+  <si>
+    <t># 177647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Heavy Equipment Parts &amp; Accs </t>
+  </si>
+  <si>
+    <t># 41489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Light Equipment &amp; Tools </t>
+  </si>
+  <si>
+    <t># 61573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Manufacturing &amp; Metalworking </t>
+  </si>
+  <si>
+    <t># 11804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    MRO &amp; Industrial Supply </t>
+  </si>
+  <si>
+    <t># 1266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Office </t>
+  </si>
+  <si>
+    <t># 25298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Other Business &amp; Industrial </t>
+  </si>
+  <si>
+    <t># 26261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Packing &amp; Shipping </t>
+  </si>
+  <si>
+    <t># 19273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Printing &amp; Graphic Arts </t>
+  </si>
+  <si>
+    <t># 26238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Restaurant &amp; Catering </t>
+  </si>
+  <si>
+    <t># 11874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Retail &amp; Services </t>
+  </si>
+  <si>
+    <t># 11890</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Websites &amp; Businesses for Sale </t>
+  </si>
+  <si>
+    <t># 11759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Binoculars &amp; Telescopes </t>
+  </si>
+  <si>
+    <t># 28179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Camcorders   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"># 11724 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Camera &amp; Photo Accessories </t>
+  </si>
+  <si>
+    <t># 15200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Camera Drones </t>
+  </si>
+  <si>
+    <t xml:space="preserve"># 179697 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Digital Cameras    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"># 31388 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Digital Photo Frames    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"># 150044 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Film Photography </t>
+  </si>
+  <si>
+    <t># 69323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Flashes &amp; Flash Accessories </t>
+  </si>
+  <si>
+    <t># 64353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Lenses &amp; Filters </t>
+  </si>
+  <si>
+    <t># 78997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Lighting &amp; Studio </t>
+  </si>
+  <si>
+    <t># 30078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Manuals &amp; Guides   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"># 4684 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Other Cameras &amp; Photo   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"># 27432 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Replacement Parts &amp; Tools </t>
+  </si>
+  <si>
+    <t># 162047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Tripods &amp; Supports </t>
+  </si>
+  <si>
+    <t># 30090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Video Production &amp; Editing </t>
+  </si>
+  <si>
+    <t># 21162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Vintage Movie &amp; Photography </t>
+  </si>
+  <si>
+    <t># 3326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Wholesale Lots </t>
+  </si>
+  <si>
+    <t># 45086</t>
   </si>
 </sst>
 </file>
@@ -573,295 +1078,295 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B36"/>
+  <dimension ref="B2:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>62</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>63</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>64</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>65</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>66</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>67</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>19</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>21</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>25</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>27</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>29</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>31</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>33</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>35</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>37</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>39</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>41</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>43</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>45</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>47</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>49</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>51</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>53</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>55</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>57</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>59</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>61</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>60</v>
       </c>
     </row>
@@ -873,24 +1378,809 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B4:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>165</v>
+      </c>
+      <c r="C15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="31.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>183</v>
+      </c>
+      <c r="C12" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C13" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>189</v>
+      </c>
+      <c r="C15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>191</v>
+      </c>
+      <c r="C16" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>193</v>
+      </c>
+      <c r="C17" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>195</v>
+      </c>
+      <c r="C18" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>197</v>
+      </c>
+      <c r="C19" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>199</v>
+      </c>
+      <c r="C20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>201</v>
+      </c>
+      <c r="C21" t="s">
+        <v>202</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:C20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>213</v>
+      </c>
+      <c r="C9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>215</v>
+      </c>
+      <c r="C10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>217</v>
+      </c>
+      <c r="C11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>219</v>
+      </c>
+      <c r="C12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>221</v>
+      </c>
+      <c r="C13" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>223</v>
+      </c>
+      <c r="C14" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>225</v>
+      </c>
+      <c r="C15" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>227</v>
+      </c>
+      <c r="C16" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>229</v>
+      </c>
+      <c r="C17" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>231</v>
+      </c>
+      <c r="C18" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>233</v>
+      </c>
+      <c r="C19" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>235</v>
+      </c>
+      <c r="C20" t="s">
+        <v>236</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>